--- a/archive/salary-data/salary.xlsx
+++ b/archive/salary-data/salary.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sba\SBA-white\archive\salary-data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15885" windowHeight="10695" activeTab="1"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId3"/>
     <sheet name="Лист3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -408,8 +403,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,7 +844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -881,10 +876,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -916,7 +910,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1092,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1102,18 +1095,18 @@
       <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="51" max="51" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54">
       <c r="A1" s="53" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="44.25" customHeight="1">
       <c r="A2" s="55" t="s">
         <v>112</v>
       </c>
@@ -1127,7 +1120,7 @@
       <c r="I2" s="55"/>
       <c r="J2" s="55"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54">
       <c r="A4" s="54">
         <v>2013</v>
       </c>
@@ -1193,7 +1186,7 @@
       <c r="BA4" s="33"/>
       <c r="BB4" s="33"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54">
       <c r="A5" s="36"/>
       <c r="B5" s="37" t="s">
         <v>0</v>
@@ -1355,7 +1348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1519,7 +1512,7 @@
         <v>40228.930790920516</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54">
       <c r="A7" s="43" t="s">
         <v>9</v>
       </c>
@@ -1683,7 +1676,7 @@
         <v>49144.265686748615</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1847,7 +1840,7 @@
         <v>29050.158726926027</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2011,7 +2004,7 @@
         <v>25192.402259839742</v>
       </c>
     </row>
-    <row r="10" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" ht="16.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2175,7 +2168,7 @@
         <v>27798.617506103659</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -2339,7 +2332,7 @@
         <v>28143.74207004032</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2503,7 +2496,7 @@
         <v>23239.310800577918</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2667,7 +2660,7 @@
         <v>33191.240114403292</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2831,7 +2824,7 @@
         <v>23730.388995209778</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2995,7 +2988,7 @@
         <v>27145.923338717384</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -3159,7 +3152,7 @@
         <v>28153.052455166726</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54">
       <c r="A17" s="2" t="s">
         <v>99</v>
       </c>
@@ -3323,7 +3316,7 @@
         <v>46479.453987895853</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -3487,7 +3480,7 @@
         <v>24952.473850869548</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3651,7 +3644,7 @@
         <v>30909.911403073944</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -3815,7 +3808,7 @@
         <v>26144.953556607848</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -3979,7 +3972,7 @@
         <v>25299.825539030266</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -4143,7 +4136,7 @@
         <v>27704.16397870623</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -4307,7 +4300,7 @@
         <v>31039.746984540296</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -4471,7 +4464,7 @@
         <v>31069.218104372274</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
@@ -4635,7 +4628,7 @@
         <v>76916.37314439725</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54">
       <c r="A26" s="43" t="s">
         <v>26</v>
       </c>
@@ -4799,7 +4792,7 @@
         <v>44628.190599534108</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -4963,7 +4956,7 @@
         <v>35264.912704266826</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -5127,7 +5120,7 @@
         <v>49613.28561296931</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -5291,7 +5284,7 @@
         <v>46123.324995913681</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54">
       <c r="A30" s="3" t="s">
         <v>94</v>
       </c>
@@ -5455,7 +5448,7 @@
         <v>84417.983001376619</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54">
       <c r="A31" s="3" t="s">
         <v>106</v>
       </c>
@@ -5619,7 +5612,7 @@
         <v>42972.794628476404</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -5783,7 +5776,7 @@
         <v>31055.483975470459</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -5947,7 +5940,7 @@
         <v>31157.079751032612</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -6111,7 +6104,7 @@
         <v>38795.566787477081</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -6275,7 +6268,7 @@
         <v>56704.402775866198</v>
       </c>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -6439,7 +6432,7 @@
         <v>29380.257664137305</v>
       </c>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -6603,7 +6596,7 @@
         <v>24330.602452640145</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -6767,7 +6760,7 @@
         <v>52269.405080487537</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54">
       <c r="A39" s="43" t="s">
         <v>108</v>
       </c>
@@ -6931,7 +6924,7 @@
         <v>28984.655429838291</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
@@ -7095,7 +7088,7 @@
         <v>24773.005620148619</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54">
       <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
@@ -7259,7 +7252,7 @@
         <v>24550.862695954635</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54">
       <c r="A42" s="22" t="s">
         <v>104</v>
       </c>
@@ -7375,7 +7368,7 @@
         <v>26322.917905137339</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54">
       <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
@@ -7539,7 +7532,7 @@
         <v>31297.373997167593</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54">
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
@@ -7703,7 +7696,7 @@
         <v>28013.319871262709</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54">
       <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
@@ -7867,7 +7860,7 @@
         <v>28620.572560871165</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54">
       <c r="A46" s="4" t="s">
         <v>42</v>
       </c>
@@ -8031,7 +8024,7 @@
         <v>28255.942974566231</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54">
       <c r="A47" s="22" t="s">
         <v>105</v>
       </c>
@@ -8147,7 +8140,7 @@
         <v>25651.784032656538</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54">
       <c r="A48" s="43" t="s">
         <v>43</v>
       </c>
@@ -8311,7 +8304,7 @@
         <v>23980.122178436392</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54">
       <c r="A49" s="4" t="s">
         <v>44</v>
       </c>
@@ -8475,7 +8468,7 @@
         <v>22382.716464128243</v>
       </c>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54">
       <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
@@ -8639,7 +8632,7 @@
         <v>22759.53240639151</v>
       </c>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54">
       <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
@@ -8803,7 +8796,7 @@
         <v>21219.350840175441</v>
       </c>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54">
       <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
@@ -8967,7 +8960,7 @@
         <v>22836.307281251131</v>
       </c>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54">
       <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
@@ -9131,7 +9124,7 @@
         <v>23598.111393491828</v>
       </c>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54">
       <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
@@ -9295,7 +9288,7 @@
         <v>22873.65337707445</v>
       </c>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54">
       <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
@@ -9459,7 +9452,7 @@
         <v>25990.726407639901</v>
       </c>
     </row>
-    <row r="56" spans="1:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54" ht="17.25" customHeight="1">
       <c r="A56" s="43" t="s">
         <v>92</v>
       </c>
@@ -9623,7 +9616,7 @@
         <v>30135.323987000811</v>
       </c>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54">
       <c r="A57" s="2" t="s">
         <v>51</v>
       </c>
@@ -9787,7 +9780,7 @@
         <v>31982.674714937031</v>
       </c>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54">
       <c r="A58" s="2" t="s">
         <v>52</v>
       </c>
@@ -9951,7 +9944,7 @@
         <v>28831.50027179551</v>
       </c>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54">
       <c r="A59" s="2" t="s">
         <v>53</v>
       </c>
@@ -10115,7 +10108,7 @@
         <v>24726.518144210622</v>
       </c>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54">
       <c r="A60" s="2" t="s">
         <v>54</v>
       </c>
@@ -10279,7 +10272,7 @@
         <v>33376.791867937573</v>
       </c>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54">
       <c r="A61" s="2" t="s">
         <v>55</v>
       </c>
@@ -10443,7 +10436,7 @@
         <v>30133.612635619738</v>
       </c>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54">
       <c r="A62" s="2" t="s">
         <v>56</v>
       </c>
@@ -10607,7 +10600,7 @@
         <v>24743.448635262757</v>
       </c>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54">
       <c r="A63" s="2" t="s">
         <v>57</v>
       </c>
@@ -10771,7 +10764,7 @@
         <v>32767.432414290754</v>
       </c>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54">
       <c r="A64" s="2" t="s">
         <v>58</v>
       </c>
@@ -10935,7 +10928,7 @@
         <v>24899.786439222935</v>
       </c>
     </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54">
       <c r="A65" s="2" t="s">
         <v>59</v>
       </c>
@@ -11099,7 +11092,7 @@
         <v>30864.958277951737</v>
       </c>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54">
       <c r="A66" s="2" t="s">
         <v>60</v>
       </c>
@@ -11263,7 +11256,7 @@
         <v>29285.458798034837</v>
       </c>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54">
       <c r="A67" s="2" t="s">
         <v>61</v>
       </c>
@@ -11427,7 +11420,7 @@
         <v>27046.929158461433</v>
       </c>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54">
       <c r="A68" s="2" t="s">
         <v>62</v>
       </c>
@@ -11591,7 +11584,7 @@
         <v>32259.986146209067</v>
       </c>
     </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:54">
       <c r="A69" s="2" t="s">
         <v>63</v>
       </c>
@@ -11755,7 +11748,7 @@
         <v>25069.776674149522</v>
       </c>
     </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:54">
       <c r="A70" s="2" t="s">
         <v>64</v>
       </c>
@@ -11919,7 +11912,7 @@
         <v>26254.790438381904</v>
       </c>
     </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:54">
       <c r="A71" s="43" t="s">
         <v>95</v>
       </c>
@@ -12083,7 +12076,7 @@
         <v>47840.247801881793</v>
       </c>
     </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:54">
       <c r="A72" s="2" t="s">
         <v>65</v>
       </c>
@@ -12247,7 +12240,7 @@
         <v>26561.481176677411</v>
       </c>
     </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:54">
       <c r="A73" s="2" t="s">
         <v>66</v>
       </c>
@@ -12411,7 +12404,7 @@
         <v>35984.7743034753</v>
       </c>
     </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:54">
       <c r="A74" s="2" t="s">
         <v>67</v>
       </c>
@@ -12575,7 +12568,7 @@
         <v>72097.26554480374</v>
       </c>
     </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:54">
       <c r="A75" s="2" t="s">
         <v>100</v>
       </c>
@@ -12632,7 +12625,7 @@
       <c r="BA75" s="32"/>
       <c r="BB75" s="32"/>
     </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:54">
       <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
@@ -12796,7 +12789,7 @@
         <v>74859.536050178853</v>
       </c>
     </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54">
       <c r="A77" s="3" t="s">
         <v>97</v>
       </c>
@@ -12960,7 +12953,7 @@
         <v>105414.11581257809</v>
       </c>
     </row>
-    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54">
       <c r="A78" s="3" t="s">
         <v>107</v>
       </c>
@@ -13124,7 +13117,7 @@
         <v>43601.523027458599</v>
       </c>
     </row>
-    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:54">
       <c r="A79" s="2" t="s">
         <v>68</v>
       </c>
@@ -13288,7 +13281,7 @@
         <v>32726.729288669299</v>
       </c>
     </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:54">
       <c r="A80" s="43" t="s">
         <v>98</v>
       </c>
@@ -13452,7 +13445,7 @@
         <v>35076.459671957593</v>
       </c>
     </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:54">
       <c r="A81" s="2" t="s">
         <v>69</v>
       </c>
@@ -13616,7 +13609,7 @@
         <v>26930.128984881208</v>
       </c>
     </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:54">
       <c r="A82" s="2" t="s">
         <v>70</v>
       </c>
@@ -13780,7 +13773,7 @@
         <v>32048.76956765963</v>
       </c>
     </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:54">
       <c r="A83" s="2" t="s">
         <v>71</v>
       </c>
@@ -13944,7 +13937,7 @@
         <v>33608.89850803477</v>
       </c>
     </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:54">
       <c r="A84" s="2" t="s">
         <v>72</v>
       </c>
@@ -14108,7 +14101,7 @@
         <v>34701.323923599492</v>
       </c>
     </row>
-    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:54">
       <c r="A85" s="2" t="s">
         <v>73</v>
       </c>
@@ -14272,7 +14265,7 @@
         <v>22503.840954751162</v>
       </c>
     </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:54">
       <c r="A86" s="2" t="s">
         <v>74</v>
       </c>
@@ -14436,7 +14429,7 @@
         <v>34904.879933233475</v>
       </c>
     </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:54">
       <c r="A87" s="2" t="s">
         <v>75</v>
       </c>
@@ -14600,7 +14593,7 @@
         <v>42610.08852592991</v>
       </c>
     </row>
-    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:54">
       <c r="A88" s="2" t="s">
         <v>76</v>
       </c>
@@ -14764,7 +14757,7 @@
         <v>40527.592362838921</v>
       </c>
     </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:54">
       <c r="A89" s="2" t="s">
         <v>77</v>
       </c>
@@ -14928,7 +14921,7 @@
         <v>33700.546045289797</v>
       </c>
     </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54">
       <c r="A90" s="2" t="s">
         <v>78</v>
       </c>
@@ -15092,7 +15085,7 @@
         <v>33417.030856990175</v>
       </c>
     </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54">
       <c r="A91" s="2" t="s">
         <v>79</v>
       </c>
@@ -15256,7 +15249,7 @@
         <v>30914.225721762774</v>
       </c>
     </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:54">
       <c r="A92" s="2" t="s">
         <v>80</v>
       </c>
@@ -15420,7 +15413,7 @@
         <v>43232.331744922565</v>
       </c>
     </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:54">
       <c r="A93" s="43" t="s">
         <v>81</v>
       </c>
@@ -15584,7 +15577,7 @@
         <v>52942.920228562136</v>
       </c>
     </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:54">
       <c r="A94" s="2" t="s">
         <v>82</v>
       </c>
@@ -15748,7 +15741,7 @@
         <v>68590.068770599188</v>
       </c>
     </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:54">
       <c r="A95" s="2" t="s">
         <v>83</v>
       </c>
@@ -15912,7 +15905,7 @@
         <v>77043.251535660063</v>
       </c>
     </row>
-    <row r="96" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:54">
       <c r="A96" s="2" t="s">
         <v>84</v>
       </c>
@@ -16076,7 +16069,7 @@
         <v>38986.146997387259</v>
       </c>
     </row>
-    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:54">
       <c r="A97" s="2" t="s">
         <v>85</v>
       </c>
@@ -16240,7 +16233,7 @@
         <v>49014.703383520296</v>
       </c>
     </row>
-    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:54">
       <c r="A98" s="2" t="s">
         <v>86</v>
       </c>
@@ -16404,7 +16397,7 @@
         <v>37521.953675837278</v>
       </c>
     </row>
-    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:54">
       <c r="A99" s="2" t="s">
         <v>87</v>
       </c>
@@ -16568,7 +16561,7 @@
         <v>79958.651157946748</v>
       </c>
     </row>
-    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:54">
       <c r="A100" s="2" t="s">
         <v>88</v>
       </c>
@@ -16732,7 +16725,7 @@
         <v>70052.393772833093</v>
       </c>
     </row>
-    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:54">
       <c r="A101" s="2" t="s">
         <v>89</v>
       </c>
@@ -16896,7 +16889,7 @@
         <v>35517.898455346483</v>
       </c>
     </row>
-    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:54">
       <c r="A102" s="2" t="s">
         <v>90</v>
       </c>
@@ -17060,12 +17053,12 @@
         <v>94997.137640590634</v>
       </c>
     </row>
-    <row r="104" spans="1:54" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:54" ht="34.5">
       <c r="A104" s="26" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:54" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:54" ht="17.25">
       <c r="A105" s="25"/>
     </row>
   </sheetData>
@@ -17080,28 +17073,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD90"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="51" max="51" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54">
       <c r="A1" s="53" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="44.25" customHeight="1">
       <c r="A2" s="55" t="s">
         <v>112</v>
       </c>
@@ -17115,7 +17108,7 @@
       <c r="I2" s="55"/>
       <c r="J2" s="55"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54">
       <c r="A4" s="54">
         <v>2013</v>
       </c>
@@ -17181,7 +17174,7 @@
       <c r="BA4" s="33"/>
       <c r="BB4" s="33"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54">
       <c r="A5" s="36"/>
       <c r="B5" s="37" t="s">
         <v>0</v>
@@ -17343,7 +17336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -17507,7 +17500,7 @@
         <v>29050.158726926027</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -17671,7 +17664,7 @@
         <v>25192.402259839742</v>
       </c>
     </row>
-    <row r="8" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" ht="16.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -17835,7 +17828,7 @@
         <v>27798.617506103659</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -17999,7 +17992,7 @@
         <v>28143.74207004032</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -18163,7 +18156,7 @@
         <v>23239.310800577918</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -18327,7 +18320,7 @@
         <v>33191.240114403292</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -18491,7 +18484,7 @@
         <v>23730.388995209778</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -18655,7 +18648,7 @@
         <v>27145.923338717384</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -18819,7 +18812,7 @@
         <v>28153.052455166726</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54">
       <c r="A15" s="2" t="s">
         <v>99</v>
       </c>
@@ -18983,7 +18976,7 @@
         <v>46479.453987895853</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -19147,7 +19140,7 @@
         <v>24952.473850869548</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -19311,7 +19304,7 @@
         <v>30909.911403073944</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -19475,7 +19468,7 @@
         <v>26144.953556607848</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -19639,7 +19632,7 @@
         <v>25299.825539030266</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -19803,7 +19796,7 @@
         <v>27704.16397870623</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -19967,7 +19960,7 @@
         <v>31039.746984540296</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -20131,7 +20124,7 @@
         <v>31069.218104372274</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54">
       <c r="A23" s="2" t="s">
         <v>93</v>
       </c>
@@ -20295,7 +20288,7 @@
         <v>76916.37314439725</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -20459,7 +20452,7 @@
         <v>35264.912704266826</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -20623,7 +20616,7 @@
         <v>49613.28561296931</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -20787,7 +20780,7 @@
         <v>46123.324995913681</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54">
       <c r="A27" s="3" t="s">
         <v>116</v>
       </c>
@@ -20951,7 +20944,7 @@
         <v>84417.983001376619</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -21115,7 +21108,7 @@
         <v>31055.483975470459</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -21279,7 +21272,7 @@
         <v>31157.079751032612</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -21443,7 +21436,7 @@
         <v>38795.566787477081</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -21607,7 +21600,7 @@
         <v>56704.402775866198</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -21771,7 +21764,7 @@
         <v>29380.257664137305</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -21935,7 +21928,7 @@
         <v>24330.602452640145</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -22099,7 +22092,7 @@
         <v>52269.405080487537</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -22263,7 +22256,7 @@
         <v>24773.005620148619</v>
       </c>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -22427,7 +22420,7 @@
         <v>24550.862695954635</v>
       </c>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54">
       <c r="A37" s="22" t="s">
         <v>104</v>
       </c>
@@ -22543,7 +22536,7 @@
         <v>26322.917905137339</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -22707,7 +22700,7 @@
         <v>31297.373997167593</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -22871,7 +22864,7 @@
         <v>28013.319871262709</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
@@ -23035,7 +23028,7 @@
         <v>28620.572560871165</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
@@ -23199,7 +23192,7 @@
         <v>28255.942974566231</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54">
       <c r="A42" s="22" t="s">
         <v>105</v>
       </c>
@@ -23315,7 +23308,7 @@
         <v>25651.784032656538</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
@@ -23479,7 +23472,7 @@
         <v>22382.716464128243</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54">
       <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
@@ -23643,7 +23636,7 @@
         <v>22759.53240639151</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -23807,7 +23800,7 @@
         <v>21219.350840175441</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -23971,7 +23964,7 @@
         <v>22836.307281251131</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54">
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
@@ -24135,7 +24128,7 @@
         <v>23598.111393491828</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
@@ -24299,7 +24292,7 @@
         <v>22873.65337707445</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
@@ -24463,7 +24456,7 @@
         <v>25990.726407639901</v>
       </c>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
@@ -24627,7 +24620,7 @@
         <v>31982.674714937031</v>
       </c>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
@@ -24791,7 +24784,7 @@
         <v>28831.50027179551</v>
       </c>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -24955,7 +24948,7 @@
         <v>24726.518144210622</v>
       </c>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
@@ -25119,7 +25112,7 @@
         <v>33376.791867937573</v>
       </c>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -25283,7 +25276,7 @@
         <v>30133.612635619738</v>
       </c>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
@@ -25447,7 +25440,7 @@
         <v>24743.448635262757</v>
       </c>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -25611,7 +25604,7 @@
         <v>32767.432414290754</v>
       </c>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -25775,7 +25768,7 @@
         <v>24899.786439222935</v>
       </c>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -25939,7 +25932,7 @@
         <v>30864.958277951737</v>
       </c>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
@@ -26103,7 +26096,7 @@
         <v>29285.458798034837</v>
       </c>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
@@ -26267,7 +26260,7 @@
         <v>27046.929158461433</v>
       </c>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
@@ -26431,7 +26424,7 @@
         <v>32259.986146209067</v>
       </c>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -26595,7 +26588,7 @@
         <v>25069.776674149522</v>
       </c>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -26759,7 +26752,7 @@
         <v>26254.790438381904</v>
       </c>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -26923,7 +26916,7 @@
         <v>26561.481176677411</v>
       </c>
     </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
@@ -27087,7 +27080,7 @@
         <v>35984.7743034753</v>
       </c>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -27251,7 +27244,7 @@
         <v>72097.26554480374</v>
       </c>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54">
       <c r="A67" s="3" t="s">
         <v>115</v>
       </c>
@@ -27415,7 +27408,7 @@
         <v>74859.536050178853</v>
       </c>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54">
       <c r="A68" s="3" t="s">
         <v>114</v>
       </c>
@@ -27579,7 +27572,7 @@
         <v>105414.11581257809</v>
       </c>
     </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:54">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -27743,7 +27736,7 @@
         <v>32726.729288669299</v>
       </c>
     </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:54">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -27907,7 +27900,7 @@
         <v>26930.128984881208</v>
       </c>
     </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:54">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -28071,7 +28064,7 @@
         <v>32048.76956765963</v>
       </c>
     </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:54">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -28235,7 +28228,7 @@
         <v>33608.89850803477</v>
       </c>
     </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:54">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -28399,7 +28392,7 @@
         <v>34701.323923599492</v>
       </c>
     </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:54">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -28563,7 +28556,7 @@
         <v>22503.840954751162</v>
       </c>
     </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:54">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -28727,7 +28720,7 @@
         <v>34904.879933233475</v>
       </c>
     </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:54">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -28891,7 +28884,7 @@
         <v>42610.08852592991</v>
       </c>
     </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -29055,7 +29048,7 @@
         <v>40527.592362838921</v>
       </c>
     </row>
-    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -29219,7 +29212,7 @@
         <v>33700.546045289797</v>
       </c>
     </row>
-    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:54">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -29383,7 +29376,7 @@
         <v>33417.030856990175</v>
       </c>
     </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:54">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -29547,7 +29540,7 @@
         <v>30914.225721762774</v>
       </c>
     </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:54">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -29711,7 +29704,7 @@
         <v>43232.331744922565</v>
       </c>
     </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:54">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
@@ -29875,7 +29868,7 @@
         <v>68590.068770599188</v>
       </c>
     </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:54">
       <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
@@ -30039,7 +30032,7 @@
         <v>77043.251535660063</v>
       </c>
     </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:54">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
@@ -30203,7 +30196,7 @@
         <v>38986.146997387259</v>
       </c>
     </row>
-    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:54">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
@@ -30367,7 +30360,7 @@
         <v>49014.703383520296</v>
       </c>
     </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:54">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
@@ -30531,7 +30524,7 @@
         <v>37521.953675837278</v>
       </c>
     </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:54">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
@@ -30695,7 +30688,7 @@
         <v>79958.651157946748</v>
       </c>
     </row>
-    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:54">
       <c r="A88" s="2" t="s">
         <v>88</v>
       </c>
@@ -30859,7 +30852,7 @@
         <v>70052.393772833093</v>
       </c>
     </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:54">
       <c r="A89" s="2" t="s">
         <v>89</v>
       </c>
@@ -31023,7 +31016,7 @@
         <v>35517.898455346483</v>
       </c>
     </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54">
       <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
@@ -31187,12 +31180,12 @@
         <v>94997.137640590634</v>
       </c>
     </row>
-    <row r="92" spans="1:54" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:54" ht="34.5">
       <c r="A92" s="26" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:54" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:54" ht="17.25">
       <c r="A93" s="25"/>
     </row>
   </sheetData>
@@ -31206,12 +31199,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31219,12 +31212,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
